--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466555.2111160501</v>
+        <v>460869.2309561959</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9773342.544440225</v>
+        <v>10309225.22404067</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10063289.13747497</v>
+        <v>10570471.34788141</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8338423.444803716</v>
+        <v>8049466.5381141</v>
       </c>
     </row>
     <row r="11">
@@ -656,73 +656,73 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>44.4651922790234</v>
+      </c>
+      <c r="S2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="C2" t="n">
+      <c r="T2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="D2" t="n">
-        <v>44.46519227902342</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>50.48273419507654</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="X3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,46 +823,46 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.386866521745219</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>17.44799951871617</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>41.4216011981056</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>231.8635835046283</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.2420339516672</v>
+        <v>47.38379687733242</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>47.3837968773324</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>158.702920283665</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>53.79631798062264</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>77.14804664098638</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598912</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>13.74224000600998</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>276.1565137023555</v>
+        <v>47.38379687733241</v>
       </c>
       <c r="D8" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>47.38379687733241</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="G9" t="n">
-        <v>75.00703542425543</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>13.74224000600996</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>198.9430992003371</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,16 +1376,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>402.5461923551906</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>65.70991267247049</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705013</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.22331801800679</v>
+        <v>1.781160222249216</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>109.2655041992269</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
         <v>65.70991267247049</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>80.40813869457953</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H15" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269651</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>122.6942204073858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.781160222249448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>94.87352909027997</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>121.9402165530812</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>3.94520286736677</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>74.08682336414029</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>163.5820951301549</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>36.352432521456</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>77.53199603027169</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.781160222249139</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>337.3709850838614</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>146.9246168289004</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>170.2246274722904</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2494,7 +2494,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I25" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>144.8586974472232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,10 +2564,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>311.6395733500273</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>208.2474868886327</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>96.47522729568951</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>43.30112502764935</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>312.1144882740173</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>122.5165082451016</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
         <v>251.045250128462</v>
@@ -2852,13 +2852,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.41653965146578</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>191.9165980458612</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>89.12985772078963</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>164.8794105563628</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>55.9417421983714</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>90.99395968649114</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3269,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>278.0818333067239</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>188.5277707996043</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3348,7 +3348,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3363,7 +3363,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.5027752869404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3503,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>120.9627414633093</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,10 +3518,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>131.0542342633578</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838592</v>
       </c>
       <c r="T39" t="n">
         <v>192.0665623188214</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3676,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
-        <v>137.6824606572923</v>
+        <v>137.4189490141214</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3743,10 +3743,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>282.3894018905156</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>73.09793466719495</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3831,7 +3831,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3343964518642</v>
       </c>
       <c r="H42" t="n">
         <v>92.83156789269626</v>
@@ -3870,7 +3870,7 @@
         <v>134.3646350838588</v>
       </c>
       <c r="T42" t="n">
-        <v>192.0665623188218</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U42" t="n">
         <v>225.8092030868072</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>106.9406853636791</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>108.2197608245442</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>213.6895597919031</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>202.4000438572354</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>105.5027752869399</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>105.7290161011146</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.9382759771985</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="C2" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="D2" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E2" t="n">
         <v>4.038618735606123</v>
@@ -4334,10 +4334,10 @@
         <v>54.01652558873189</v>
       </c>
       <c r="L2" t="n">
-        <v>54.01652558873189</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="M2" t="n">
-        <v>54.01652558873189</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N2" t="n">
         <v>101.9751230740546</v>
@@ -4352,28 +4352,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R2" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
       <c r="S2" t="n">
-        <v>201.9309367803062</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="T2" t="n">
-        <v>201.9309367803062</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="U2" t="n">
-        <v>201.9309367803062</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="V2" t="n">
-        <v>201.9309367803062</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="W2" t="n">
-        <v>201.9309367803062</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="X2" t="n">
-        <v>201.9309367803062</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="Y2" t="n">
-        <v>201.9309367803062</v>
+        <v>4.038618735606123</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>4.038618735606123</v>
       </c>
       <c r="J3" t="n">
-        <v>4.038618735606123</v>
+        <v>7.929436376304878</v>
       </c>
       <c r="K3" t="n">
-        <v>4.038618735606123</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="L3" t="n">
-        <v>4.038618735606123</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="M3" t="n">
-        <v>51.99721622092883</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N3" t="n">
         <v>101.9751230740546</v>
       </c>
       <c r="O3" t="n">
+        <v>101.9751230740546</v>
+      </c>
+      <c r="P3" t="n">
         <v>151.9530299271804</v>
-      </c>
-      <c r="P3" t="n">
-        <v>201.9309367803062</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
@@ -4446,10 +4446,10 @@
         <v>106.0239403418214</v>
       </c>
       <c r="W3" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="X3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="Y3" t="n">
         <v>4.038618735606123</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.4881834901262</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="C4" t="n">
-        <v>165.4881834901262</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="D4" t="n">
-        <v>165.4881834901262</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="E4" t="n">
-        <v>157.016601144929</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="F4" t="n">
-        <v>106.0239403418214</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="G4" t="n">
-        <v>55.03127953871374</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="H4" t="n">
-        <v>55.03127953871374</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="I4" t="n">
-        <v>4.038618735606123</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="J4" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="K4" t="n">
         <v>4.038618735606123</v>
@@ -4507,31 +4507,31 @@
         <v>165.4881834901262</v>
       </c>
       <c r="Q4" t="n">
-        <v>165.4881834901262</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="R4" t="n">
-        <v>165.4881834901262</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="S4" t="n">
-        <v>165.4881834901262</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="T4" t="n">
-        <v>165.4881834901262</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="U4" t="n">
-        <v>165.4881834901262</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="V4" t="n">
-        <v>165.4881834901262</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="W4" t="n">
-        <v>165.4881834901262</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="X4" t="n">
-        <v>165.4881834901262</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.4881834901262</v>
+        <v>72.65552147681089</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>521.1660470154218</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="C5" t="n">
-        <v>286.9604071117568</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="D5" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="E5" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="F5" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="G5" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H5" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I5" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573685</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142367</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098033</v>
+        <v>50.24940920255072</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369341</v>
+        <v>103.5077640033671</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885156</v>
+        <v>156.7661188041835</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806668</v>
+        <v>210.024473605</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806669</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.968135806669</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S5" t="n">
-        <v>1052.968135806669</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="T5" t="n">
-        <v>1052.968135806669</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="U5" t="n">
-        <v>1052.968135806669</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="V5" t="n">
-        <v>1052.968135806669</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="W5" t="n">
-        <v>1052.968135806669</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="X5" t="n">
-        <v>1052.968135806669</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="Y5" t="n">
-        <v>787.0670914110452</v>
+        <v>4.303705438449811</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195.5123919972604</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="C6" t="n">
-        <v>21.05936271613337</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="D6" t="n">
-        <v>21.05936271613337</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="E6" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="J6" t="n">
-        <v>24.95018035683224</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2210505399126</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="L6" t="n">
-        <v>398.8245784347753</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="M6" t="n">
-        <v>659.4341920469258</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="N6" t="n">
-        <v>785.316696249022</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="O6" t="n">
-        <v>785.316696249022</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="P6" t="n">
-        <v>977.3180709271207</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806669</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806669</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S6" t="n">
-        <v>1052.968135806669</v>
+        <v>167.322850834276</v>
       </c>
       <c r="T6" t="n">
-        <v>1052.968135806669</v>
+        <v>167.322850834276</v>
       </c>
       <c r="U6" t="n">
-        <v>892.6621557221586</v>
+        <v>167.322850834276</v>
       </c>
       <c r="V6" t="n">
-        <v>657.5100474904159</v>
+        <v>167.322850834276</v>
       </c>
       <c r="W6" t="n">
-        <v>403.2726907622143</v>
+        <v>167.322850834276</v>
       </c>
       <c r="X6" t="n">
-        <v>403.2726907622143</v>
+        <v>167.322850834276</v>
       </c>
       <c r="Y6" t="n">
-        <v>195.5123919972604</v>
+        <v>112.9831357023339</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.98668255551357</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="C7" t="n">
-        <v>98.98668255551357</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="D7" t="n">
-        <v>98.98668255551357</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="E7" t="n">
-        <v>98.98668255551357</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="F7" t="n">
-        <v>98.98668255551357</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="G7" t="n">
-        <v>98.98668255551357</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H7" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I7" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613337</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360313</v>
+        <v>40.91308160718852</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955242</v>
+        <v>89.90165885833002</v>
       </c>
       <c r="N7" t="n">
-        <v>150.0877739486502</v>
+        <v>143.1600136591464</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716489</v>
+        <v>176.3364289177236</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706541</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>98.98668255551357</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="R7" t="n">
-        <v>98.98668255551357</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="S7" t="n">
-        <v>98.98668255551357</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="T7" t="n">
-        <v>98.98668255551357</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="U7" t="n">
-        <v>98.98668255551357</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="V7" t="n">
-        <v>98.98668255551357</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="W7" t="n">
-        <v>98.98668255551357</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="X7" t="n">
-        <v>98.98668255551357</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="Y7" t="n">
-        <v>98.98668255551357</v>
+        <v>4.303705438449811</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>579.9844679696339</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="C8" t="n">
-        <v>301.0384945329112</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="D8" t="n">
-        <v>22.09252109618844</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="E8" t="n">
-        <v>22.09252109618844</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="F8" t="n">
-        <v>22.09252109618844</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="G8" t="n">
-        <v>22.09252109618844</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="H8" t="n">
-        <v>22.09252109618844</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="I8" t="n">
-        <v>22.09252109618844</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="J8" t="n">
-        <v>22.09252109618843</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="K8" t="n">
-        <v>142.8373253438683</v>
+        <v>55.4102075200413</v>
       </c>
       <c r="L8" t="n">
-        <v>344.9085595412869</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="M8" t="n">
-        <v>586.3582880173957</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="N8" t="n">
-        <v>817.0829279823544</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="O8" t="n">
-        <v>989.7620250901066</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="P8" t="n">
-        <v>1099.465256491931</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Q8" t="n">
-        <v>1104.626054809422</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="R8" t="n">
-        <v>1104.626054809422</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S8" t="n">
-        <v>1104.626054809422</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="T8" t="n">
-        <v>1104.626054809422</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="U8" t="n">
-        <v>1104.626054809422</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="V8" t="n">
-        <v>858.9304414063566</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="W8" t="n">
-        <v>858.9304414063566</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="X8" t="n">
-        <v>579.9844679696339</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="Y8" t="n">
-        <v>579.9844679696339</v>
+        <v>160.8455567905485</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>578.0822456026086</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="C9" t="n">
-        <v>403.6292163214816</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="D9" t="n">
-        <v>403.6292163214816</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="E9" t="n">
-        <v>244.3917613160261</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="F9" t="n">
-        <v>97.85720334291111</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="G9" t="n">
-        <v>22.09252109618844</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="H9" t="n">
-        <v>22.09252109618844</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I9" t="n">
-        <v>22.09252109618844</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="J9" t="n">
-        <v>22.09252109618844</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="K9" t="n">
-        <v>22.09252109618844</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="L9" t="n">
-        <v>94.45522409818579</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="M9" t="n">
-        <v>367.8501726635177</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="N9" t="n">
-        <v>641.2451212288496</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="O9" t="n">
-        <v>907.7419348121334</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="P9" t="n">
-        <v>1104.626054809422</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="Q9" t="n">
-        <v>1104.626054809422</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="R9" t="n">
-        <v>1008.180757940352</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S9" t="n">
-        <v>1008.180757940352</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="T9" t="n">
-        <v>806.3008579684609</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="U9" t="n">
-        <v>578.0822456026086</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="V9" t="n">
-        <v>578.0822456026086</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="W9" t="n">
-        <v>578.0822456026086</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="X9" t="n">
-        <v>578.0822456026086</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="Y9" t="n">
-        <v>578.0822456026086</v>
+        <v>160.8455567905485</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.09252109618844</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="C10" t="n">
-        <v>22.09252109618844</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="D10" t="n">
-        <v>22.09252109618844</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="E10" t="n">
-        <v>22.09252109618844</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="F10" t="n">
-        <v>22.09252109618844</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="G10" t="n">
-        <v>22.09252109618844</v>
+        <v>167.322850834276</v>
       </c>
       <c r="H10" t="n">
-        <v>22.09252109618844</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="I10" t="n">
-        <v>22.09252109618844</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="J10" t="n">
-        <v>22.09252109618844</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="K10" t="n">
-        <v>22.09252109618844</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="L10" t="n">
-        <v>58.70189726492715</v>
+        <v>40.91308160718852</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6904745160687</v>
+        <v>89.90165885833002</v>
       </c>
       <c r="N10" t="n">
-        <v>160.9488293168851</v>
+        <v>143.1600136591464</v>
       </c>
       <c r="O10" t="n">
-        <v>194.1252445754623</v>
+        <v>176.3364289177236</v>
       </c>
       <c r="P10" t="n">
-        <v>198.9927170031359</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.9927170031359</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="R10" t="n">
-        <v>198.9927170031359</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="S10" t="n">
-        <v>22.09252109618844</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="T10" t="n">
-        <v>22.09252109618844</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="U10" t="n">
-        <v>22.09252109618844</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="V10" t="n">
-        <v>22.09252109618844</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="W10" t="n">
-        <v>22.09252109618844</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="X10" t="n">
-        <v>22.09252109618844</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.09252109618844</v>
+        <v>181.2039013453972</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2361.386702945269</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="C11" t="n">
-        <v>1992.424186004858</v>
+        <v>882.4984498491588</v>
       </c>
       <c r="D11" t="n">
-        <v>1634.158487398107</v>
+        <v>524.2327512424083</v>
       </c>
       <c r="E11" t="n">
-        <v>1248.370234799863</v>
+        <v>524.2327512424083</v>
       </c>
       <c r="F11" t="n">
-        <v>837.3843300102556</v>
+        <v>524.2327512424083</v>
       </c>
       <c r="G11" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H11" t="n">
         <v>117.6204357321147</v>
@@ -5042,10 +5042,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M11" t="n">
         <v>1220.470313923562</v>
@@ -5072,19 +5072,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U11" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V11" t="n">
-        <v>2562.339328400155</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W11" t="n">
-        <v>2562.339328400155</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X11" t="n">
-        <v>2562.339328400155</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.339328400155</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E12" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I12" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L12" t="n">
-        <v>801.9449557744476</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M12" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O12" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P12" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q12" t="n">
         <v>2562.339328400155</v>
@@ -5157,7 +5157,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X12" t="n">
         <v>1307.279776881661</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.683159487371</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C13" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D13" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E13" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F13" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G13" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H13" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I13" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K13" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N13" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q13" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S13" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T13" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U13" t="n">
-        <v>1337.233965749941</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V13" t="n">
-        <v>1337.233965749941</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W13" t="n">
-        <v>1337.233965749941</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X13" t="n">
-        <v>1337.233965749941</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="Y13" t="n">
-        <v>1269.331624317611</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1798.734238163263</v>
+        <v>1176.4303492732</v>
       </c>
       <c r="C14" t="n">
-        <v>1798.734238163263</v>
+        <v>807.4678323327887</v>
       </c>
       <c r="D14" t="n">
-        <v>1440.468539556513</v>
+        <v>807.4678323327887</v>
       </c>
       <c r="E14" t="n">
-        <v>1054.680286958269</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F14" t="n">
-        <v>643.6943821686611</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G14" t="n">
-        <v>227.98963189295</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H14" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I14" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M14" t="n">
         <v>1220.470313923562</v>
@@ -5303,25 +5303,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T14" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U14" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V14" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W14" t="n">
-        <v>2562.339328400155</v>
+        <v>1563.030189337322</v>
       </c>
       <c r="X14" t="n">
-        <v>2188.873570139075</v>
+        <v>1563.030189337322</v>
       </c>
       <c r="Y14" t="n">
-        <v>1798.734238163263</v>
+        <v>1563.030189337322</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G15" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I15" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J15" t="n">
-        <v>238.4273302370161</v>
+        <v>143.6627691908473</v>
       </c>
       <c r="K15" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L15" t="n">
-        <v>717.8525085495378</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M15" t="n">
-        <v>1178.376567084329</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N15" t="n">
-        <v>1565.661695681274</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O15" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P15" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R15" t="n">
         <v>2562.339328400155</v>
@@ -5388,16 +5388,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V15" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y15" t="n">
         <v>1099.519478116707</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="C16" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D16" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E16" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F16" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G16" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H16" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I16" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J16" t="n">
         <v>76.71595955312198</v>
@@ -5449,10 +5449,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q16" t="n">
         <v>1636.446120074497</v>
@@ -5461,25 +5461,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S16" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T16" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U16" t="n">
-        <v>825.1371474485138</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V16" t="n">
-        <v>570.452659242627</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W16" t="n">
-        <v>281.0354892056664</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X16" t="n">
-        <v>53.04593830764901</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1287.435190625613</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C17" t="n">
-        <v>918.472673685201</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D17" t="n">
-        <v>560.2069750784506</v>
+        <v>933.2161775761949</v>
       </c>
       <c r="E17" t="n">
-        <v>174.4187224802063</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F17" t="n">
-        <v>174.4187224802063</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G17" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H17" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I17" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M17" t="n">
         <v>1220.470313923562</v>
@@ -5543,22 +5543,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T17" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U17" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V17" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W17" t="n">
-        <v>2437.640120926626</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X17" t="n">
-        <v>2064.174362665546</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y17" t="n">
-        <v>1674.035030689734</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>423.148951518066</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L18" t="n">
-        <v>801.9449557744476</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M18" t="n">
-        <v>1165.206974733668</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N18" t="n">
-        <v>1552.492103330613</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O18" t="n">
-        <v>1884.562538506775</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P18" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R18" t="n">
         <v>2562.339328400155</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.23183996938369</v>
+        <v>126.0819616832963</v>
       </c>
       <c r="C19" t="n">
-        <v>51.24678656800311</v>
+        <v>126.0819616832963</v>
       </c>
       <c r="D19" t="n">
-        <v>51.24678656800311</v>
+        <v>126.0819616832963</v>
       </c>
       <c r="E19" t="n">
-        <v>51.24678656800311</v>
+        <v>126.0819616832963</v>
       </c>
       <c r="F19" t="n">
-        <v>51.24678656800311</v>
+        <v>126.0819616832963</v>
       </c>
       <c r="G19" t="n">
         <v>51.24678656800311</v>
@@ -5701,22 +5701,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T19" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.115628253779</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V19" t="n">
-        <v>793.4311400478917</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W19" t="n">
-        <v>504.0139700109311</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X19" t="n">
-        <v>276.0244191129138</v>
+        <v>307.730426513536</v>
       </c>
       <c r="Y19" t="n">
-        <v>55.23183996938369</v>
+        <v>307.730426513536</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1505.042027525391</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="C20" t="n">
-        <v>1136.079510584979</v>
+        <v>1043.171881158731</v>
       </c>
       <c r="D20" t="n">
-        <v>777.8138119782286</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E20" t="n">
-        <v>392.0255593799844</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F20" t="n">
-        <v>392.0255593799844</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G20" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H20" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I20" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362823</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816087</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M20" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N20" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O20" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P20" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R20" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S20" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T20" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U20" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V20" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W20" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X20" t="n">
-        <v>1505.042027525391</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y20" t="n">
-        <v>1505.042027525391</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="21">
@@ -5817,43 +5817,43 @@
         <v>448.679247148805</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G21" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057903</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I21" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J21" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K21" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L21" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M21" t="n">
-        <v>1218.104987164206</v>
+        <v>1001.276695922949</v>
       </c>
       <c r="N21" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O21" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P21" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R21" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S21" t="n">
         <v>2426.617474780096</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>977.1399948936614</v>
+        <v>494.0245808582381</v>
       </c>
       <c r="C22" t="n">
-        <v>977.1399948936614</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="D22" t="n">
-        <v>977.1399948936614</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E22" t="n">
-        <v>977.1399948936614</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F22" t="n">
-        <v>977.1399948936614</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G22" t="n">
-        <v>977.1399948936614</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H22" t="n">
-        <v>977.1399948936614</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I22" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J22" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K22" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L22" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M22" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N22" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P22" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q22" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R22" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.127174075599</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T22" t="n">
-        <v>2040.148693270334</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U22" t="n">
-        <v>1751.030355774172</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V22" t="n">
-        <v>1496.345867568285</v>
+        <v>1082.549477544054</v>
       </c>
       <c r="W22" t="n">
-        <v>1206.928697531324</v>
+        <v>793.1323075070932</v>
       </c>
       <c r="X22" t="n">
-        <v>978.939146633307</v>
+        <v>793.1323075070932</v>
       </c>
       <c r="Y22" t="n">
-        <v>977.1399948936614</v>
+        <v>572.339728363563</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1505.042027525391</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C23" t="n">
-        <v>1136.079510584979</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D23" t="n">
-        <v>777.8138119782286</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E23" t="n">
-        <v>392.0255593799844</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F23" t="n">
-        <v>392.0255593799844</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G23" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H23" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I23" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362823</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816087</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M23" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N23" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O23" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P23" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q23" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R23" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S23" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T23" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U23" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V23" t="n">
-        <v>2231.276441056585</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="W23" t="n">
-        <v>1878.507785786471</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="X23" t="n">
-        <v>1505.042027525391</v>
+        <v>2040.4648662715</v>
       </c>
       <c r="Y23" t="n">
-        <v>1505.042027525391</v>
+        <v>1650.325534295688</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I24" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J24" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L24" t="n">
-        <v>854.8429682049857</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M24" t="n">
-        <v>1218.104987164206</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N24" t="n">
-        <v>1605.390115761151</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O24" t="n">
-        <v>1937.460550937313</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P24" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q24" t="n">
         <v>2562.339328400155</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1087.683159487371</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C25" t="n">
-        <v>918.7469765594642</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D25" t="n">
-        <v>768.6303371471284</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E25" t="n">
-        <v>620.7172435647353</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F25" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G25" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H25" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I25" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J25" t="n">
         <v>76.71595955312199</v>
@@ -6181,16 +6181,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V25" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W25" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X25" t="n">
-        <v>1490.124203461141</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y25" t="n">
-        <v>1269.331624317611</v>
+        <v>1153.772080970593</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1110.088185601308</v>
+        <v>1575.249159503017</v>
       </c>
       <c r="C26" t="n">
-        <v>1110.088185601308</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="D26" t="n">
-        <v>751.8224869945577</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E26" t="n">
-        <v>366.0342343963135</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F26" t="n">
-        <v>366.0342343963135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G26" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H26" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I26" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362814</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816078</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L26" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M26" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N26" t="n">
         <v>1656.671415230817</v>
@@ -6251,25 +6251,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S26" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T26" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U26" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V26" t="n">
-        <v>1852.996172847234</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W26" t="n">
-        <v>1500.22751757712</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X26" t="n">
-        <v>1500.22751757712</v>
+        <v>2351.988331542951</v>
       </c>
       <c r="Y26" t="n">
-        <v>1110.088185601308</v>
+        <v>1961.848999567139</v>
       </c>
     </row>
     <row r="27">
@@ -6285,37 +6285,37 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G27" t="n">
-        <v>165.4432786182515</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057869</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I27" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J27" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K27" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L27" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M27" t="n">
-        <v>1227.201367341571</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N27" t="n">
-        <v>1861.38035112061</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O27" t="n">
         <v>2199.840679460312</v>
@@ -6336,7 +6336,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V27" t="n">
         <v>1769.368633815395</v>
@@ -6379,19 +6379,19 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I28" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J28" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K28" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L28" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M28" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N28" t="n">
         <v>1123.088724245823</v>
@@ -6406,28 +6406,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T28" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U28" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V28" t="n">
-        <v>1533.862713590079</v>
+        <v>1185.132884028472</v>
       </c>
       <c r="W28" t="n">
-        <v>1533.862713590079</v>
+        <v>1185.132884028472</v>
       </c>
       <c r="X28" t="n">
-        <v>1490.124203461141</v>
+        <v>1185.132884028472</v>
       </c>
       <c r="Y28" t="n">
-        <v>1269.331624317611</v>
+        <v>1185.132884028472</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1479.530414586154</v>
+        <v>902.2877029482377</v>
       </c>
       <c r="C29" t="n">
-        <v>1110.567897645743</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="D29" t="n">
-        <v>752.3021990389921</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="E29" t="n">
-        <v>366.5139464407478</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F29" t="n">
-        <v>366.5139464407478</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G29" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H29" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I29" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N29" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O29" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P29" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q29" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R29" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S29" t="n">
-        <v>2437.640120926625</v>
+        <v>2438.58527966773</v>
       </c>
       <c r="T29" t="n">
-        <v>2437.640120926625</v>
+        <v>2229.839638273555</v>
       </c>
       <c r="U29" t="n">
-        <v>2184.059060190805</v>
+        <v>1976.258577537734</v>
       </c>
       <c r="V29" t="n">
-        <v>1852.996172847234</v>
+        <v>1645.195690194163</v>
       </c>
       <c r="W29" t="n">
-        <v>1852.996172847234</v>
+        <v>1292.427034924049</v>
       </c>
       <c r="X29" t="n">
-        <v>1479.530414586154</v>
+        <v>1292.427034924049</v>
       </c>
       <c r="Y29" t="n">
-        <v>1479.530414586154</v>
+        <v>902.2877029482377</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G30" t="n">
-        <v>165.4432786182515</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057869</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I30" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J30" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L30" t="n">
-        <v>854.8429682049857</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M30" t="n">
-        <v>1218.104987164206</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N30" t="n">
-        <v>1605.390115761151</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O30" t="n">
-        <v>1937.460550937313</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P30" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400155</v>
@@ -6573,7 +6573,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V30" t="n">
         <v>1769.368633815395</v>
@@ -6582,7 +6582,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y30" t="n">
         <v>1099.519478116707</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.2467865680031</v>
+        <v>1863.459728400694</v>
       </c>
       <c r="C31" t="n">
-        <v>51.2467865680031</v>
+        <v>1694.523545472787</v>
       </c>
       <c r="D31" t="n">
-        <v>51.2467865680031</v>
+        <v>1694.523545472787</v>
       </c>
       <c r="E31" t="n">
-        <v>51.2467865680031</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F31" t="n">
-        <v>51.2467865680031</v>
+        <v>1399.720504392484</v>
       </c>
       <c r="G31" t="n">
-        <v>51.2467865680031</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H31" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564269</v>
       </c>
       <c r="I31" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K31" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L31" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M31" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N31" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O31" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P31" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q31" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R31" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915738</v>
       </c>
       <c r="S31" t="n">
-        <v>1636.446120074497</v>
+        <v>2265.900772374464</v>
       </c>
       <c r="T31" t="n">
-        <v>1413.467639269233</v>
+        <v>2265.900772374464</v>
       </c>
       <c r="U31" t="n">
-        <v>1124.34930177307</v>
+        <v>2265.900772374464</v>
       </c>
       <c r="V31" t="n">
-        <v>869.6648135671836</v>
+        <v>2265.900772374464</v>
       </c>
       <c r="W31" t="n">
-        <v>580.2476435302231</v>
+        <v>2265.900772374464</v>
       </c>
       <c r="X31" t="n">
-        <v>352.2580926322057</v>
+        <v>2265.900772374464</v>
       </c>
       <c r="Y31" t="n">
-        <v>131.4655134886756</v>
+        <v>2045.108193230934</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1082.534146117595</v>
+        <v>141.276945881932</v>
       </c>
       <c r="C32" t="n">
-        <v>713.5716291771834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D32" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E32" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F32" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G32" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H32" t="n">
         <v>51.24678656800311</v>
@@ -6734,16 +6734,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V32" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.544763526516</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X32" t="n">
-        <v>1249.079005265436</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y32" t="n">
-        <v>1082.534146117595</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="33">
@@ -6786,16 +6786,16 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M33" t="n">
-        <v>1227.201367341571</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N33" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O33" t="n">
-        <v>1991.864164601822</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P33" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q33" t="n">
         <v>2562.339328400155</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>370.2996089082458</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="C34" t="n">
-        <v>201.3634259803388</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="D34" t="n">
-        <v>51.24678656800311</v>
+        <v>1694.523545472787</v>
       </c>
       <c r="E34" t="n">
-        <v>51.24678656800311</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F34" t="n">
-        <v>51.24678656800311</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="G34" t="n">
-        <v>51.24678656800311</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H34" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I34" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J34" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K34" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L34" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M34" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N34" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O34" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P34" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q34" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R34" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S34" t="n">
-        <v>1636.446120074497</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T34" t="n">
-        <v>1636.446120074497</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U34" t="n">
-        <v>1347.327782578335</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="V34" t="n">
-        <v>1092.643294372448</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="W34" t="n">
-        <v>1000.730203780033</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="X34" t="n">
-        <v>772.7406528820156</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="Y34" t="n">
-        <v>551.9480737384855</v>
+        <v>1751.030355774172</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1221.70230638237</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C35" t="n">
-        <v>852.7397894419585</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="D35" t="n">
-        <v>852.7397894419585</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="E35" t="n">
-        <v>466.9515368437143</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="F35" t="n">
-        <v>466.9515368437143</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="G35" t="n">
-        <v>51.24678656800311</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="H35" t="n">
         <v>51.24678656800311</v>
@@ -6938,10 +6938,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
@@ -6971,16 +6971,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V35" t="n">
-        <v>2371.907236683383</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W35" t="n">
-        <v>2371.907236683383</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X35" t="n">
-        <v>1998.441478422304</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y35" t="n">
-        <v>1608.302146446492</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="36">
@@ -6996,19 +6996,19 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I36" t="n">
         <v>51.24678656800311</v>
@@ -7017,25 +7017,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K36" t="n">
-        <v>507.2413987429759</v>
+        <v>551.2876347907472</v>
       </c>
       <c r="L36" t="n">
-        <v>801.9449557744476</v>
+        <v>845.991191822219</v>
       </c>
       <c r="M36" t="n">
-        <v>1165.206974733668</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O36" t="n">
-        <v>1884.562538506775</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P36" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q36" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R36" t="n">
         <v>2562.339328400155</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51.24678656800311</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C37" t="n">
-        <v>51.24678656800311</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D37" t="n">
-        <v>51.24678656800311</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E37" t="n">
         <v>51.24678656800311</v>
@@ -7120,25 +7120,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U37" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V37" t="n">
-        <v>896.0145465323095</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W37" t="n">
-        <v>606.597376495349</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X37" t="n">
-        <v>378.6078255973316</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.8152464538015</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1251.46096678957</v>
+        <v>1288.075955546482</v>
       </c>
       <c r="C38" t="n">
-        <v>1251.46096678957</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="D38" t="n">
-        <v>893.19526818282</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="E38" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F38" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G38" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I38" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N38" t="n">
         <v>1656.671415230817</v>
@@ -7199,25 +7199,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U38" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V38" t="n">
-        <v>1977.695380320764</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W38" t="n">
-        <v>1624.92672505065</v>
+        <v>2051.681045783374</v>
       </c>
       <c r="X38" t="n">
-        <v>1251.46096678957</v>
+        <v>1678.215287522293</v>
       </c>
       <c r="Y38" t="n">
-        <v>1251.46096678957</v>
+        <v>1288.075955546482</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D39" t="n">
         <v>607.9167021542605</v>
@@ -7239,37 +7239,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F39" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I39" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L39" t="n">
-        <v>884.9085321458217</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M39" t="n">
-        <v>1248.170551105042</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N39" t="n">
-        <v>1635.455679701987</v>
+        <v>1739.316620925521</v>
       </c>
       <c r="O39" t="n">
-        <v>1967.526114878149</v>
+        <v>2071.387056101683</v>
       </c>
       <c r="P39" t="n">
-        <v>2214.708848710446</v>
+        <v>2318.56978993398</v>
       </c>
       <c r="Q39" t="n">
         <v>2538.001278676482</v>
@@ -7290,7 +7290,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
         <v>1307.279776881661</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1729.119332661145</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="C40" t="n">
-        <v>1729.119332661145</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="D40" t="n">
-        <v>1579.00269324881</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="E40" t="n">
-        <v>1431.089599666417</v>
+        <v>610.7853646344248</v>
       </c>
       <c r="F40" t="n">
-        <v>1284.199652168506</v>
+        <v>463.8954171365144</v>
       </c>
       <c r="G40" t="n">
-        <v>1116.213187476785</v>
+        <v>295.908952444793</v>
       </c>
       <c r="H40" t="n">
-        <v>977.1399948936614</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I40" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J40" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K40" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L40" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M40" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N40" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O40" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P40" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q40" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R40" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S40" t="n">
-        <v>2562.339328400155</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T40" t="n">
-        <v>2562.339328400155</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.220990903993</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.536502698106</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.119332661145</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="X40" t="n">
-        <v>1729.119332661145</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="Y40" t="n">
-        <v>1729.119332661145</v>
+        <v>758.6984582168179</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1164.26325471341</v>
+        <v>420.2093035084148</v>
       </c>
       <c r="C41" t="n">
-        <v>795.3007377729979</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D41" t="n">
-        <v>437.0350391662474</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362823</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816087</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M41" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N41" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O41" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P41" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q41" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R41" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S41" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U41" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V41" t="n">
-        <v>2277.097508308726</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W41" t="n">
-        <v>1924.328853038611</v>
+        <v>1570.414233809428</v>
       </c>
       <c r="X41" t="n">
-        <v>1550.863094777531</v>
+        <v>1196.948475548348</v>
       </c>
       <c r="Y41" t="n">
-        <v>1550.863094777531</v>
+        <v>806.8091435725366</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E42" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G42" t="n">
         <v>165.443278618252</v>
@@ -7485,34 +7485,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I42" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J42" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>551.6025748766954</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L42" t="n">
-        <v>846.306131908167</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M42" t="n">
-        <v>1480.485115687206</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N42" t="n">
-        <v>1867.770244284151</v>
+        <v>1739.316620925521</v>
       </c>
       <c r="O42" t="n">
-        <v>2199.840679460312</v>
+        <v>2071.387056101683</v>
       </c>
       <c r="P42" t="n">
-        <v>2447.023413292609</v>
+        <v>2318.56978993398</v>
       </c>
       <c r="Q42" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R42" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S42" t="n">
         <v>2426.617474780096</v>
@@ -7524,10 +7524,10 @@
         <v>2004.520742047138</v>
       </c>
       <c r="V42" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X42" t="n">
         <v>1307.279776881661</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>900.9010127138141</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C43" t="n">
-        <v>731.9648297859072</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D43" t="n">
-        <v>581.8481903735715</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E43" t="n">
-        <v>581.8481903735715</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F43" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G43" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H43" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J43" t="n">
         <v>76.71595955312199</v>
@@ -7591,28 +7591,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T43" t="n">
-        <v>1337.233965749941</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U43" t="n">
-        <v>1337.233965749941</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V43" t="n">
-        <v>1082.549477544054</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W43" t="n">
-        <v>1082.549477544054</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X43" t="n">
-        <v>1082.549477544054</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="Y43" t="n">
-        <v>1082.549477544054</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>918.0161179218655</v>
+        <v>1432.831501090108</v>
       </c>
       <c r="C44" t="n">
-        <v>918.0161179218655</v>
+        <v>1063.868984149696</v>
       </c>
       <c r="D44" t="n">
-        <v>559.7504193151151</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E44" t="n">
-        <v>559.7504193151151</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F44" t="n">
-        <v>559.7504193151151</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G44" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H44" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M44" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O44" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S44" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T44" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U44" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V44" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W44" t="n">
-        <v>1291.481876182945</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X44" t="n">
-        <v>918.0161179218655</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="Y44" t="n">
-        <v>918.0161179218655</v>
+        <v>1819.43134115423</v>
       </c>
     </row>
     <row r="45">
@@ -7707,49 +7707,49 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F45" t="n">
         <v>302.1446891756901</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182522</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057922</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J45" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>614.543024838023</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2465818694948</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M45" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N45" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O45" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P45" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R45" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S45" t="n">
         <v>2426.617474780096</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>303.9918807365201</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="C46" t="n">
-        <v>303.9918807365201</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="D46" t="n">
-        <v>303.9918807365201</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="E46" t="n">
-        <v>303.9918807365201</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="F46" t="n">
-        <v>157.1019332386098</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="G46" t="n">
-        <v>157.1019332386098</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="H46" t="n">
-        <v>157.1019332386098</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K46" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N46" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P46" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q46" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R46" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S46" t="n">
-        <v>1337.233965749941</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="T46" t="n">
-        <v>1114.255484944676</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="U46" t="n">
-        <v>1007.458498983954</v>
+        <v>2076.592243063855</v>
       </c>
       <c r="V46" t="n">
-        <v>752.7740107780676</v>
+        <v>1821.907754857968</v>
       </c>
       <c r="W46" t="n">
-        <v>752.7740107780676</v>
+        <v>1532.490584821007</v>
       </c>
       <c r="X46" t="n">
-        <v>524.7844598800502</v>
+        <v>1304.50103392299</v>
       </c>
       <c r="Y46" t="n">
-        <v>303.9918807365201</v>
+        <v>1083.70845477946</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>258.8041889468121</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>269.6097064983847</v>
       </c>
       <c r="M2" t="n">
         <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>261.34821032935</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
         <v>264.993021668346</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>180.3309306186853</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>172.3193876769556</v>
       </c>
       <c r="M3" t="n">
-        <v>178.0347681206704</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>168.9501955242219</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>181.3015543884808</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
         <v>175.0047203318838</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>184.1458149818875</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>252.0347206524205</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>264.7836813017771</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>179.4738158616228</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>392.833774309385</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>245.6215059777271</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>130.818820193404</v>
+        <v>176.2963480628989</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>173.3862381384502</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1624432744798</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>253.8036932114795</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>267.3451747559029</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>259.4212368511231</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>260.1731688314972</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,25 +8532,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K9" t="n">
-        <v>125.6774978810001</v>
+        <v>179.4738158616228</v>
       </c>
       <c r="L9" t="n">
-        <v>195.2920992522434</v>
+        <v>173.8211892316314</v>
       </c>
       <c r="M9" t="n">
-        <v>399.2039605324505</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N9" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>173.3862381384502</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3661252938571</v>
+        <v>184.1624432744798</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>211.0329012241562</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589494</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>98.24448441976841</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L18" t="n">
-        <v>84.94186588374737</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>45.44676101130892</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>265.0304328515146</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R24" t="n">
         <v>20.9377812015499</v>
@@ -9954,19 +9954,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>6.454437538929824</v>
+        <v>265.030432851515</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0304328515146</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R30" t="n">
         <v>20.9377812015499</v>
@@ -10434,19 +10434,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>45.76488231024609</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>211.0329012241561</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>20.9377812015499</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>211.0329012241562</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>30.3692565058949</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>105.1672460959152</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>129.7511347056862</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>273.6534998179984</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>105.1672460959157</v>
       </c>
       <c r="R42" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>193.3273467878353</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R45" t="n">
         <v>20.9377812015499</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.251107468404</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>314.790157575931</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>310.2178493416595</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>331.4476358771852</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>99.59241048544678</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>156.4291245048363</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>172.208126091823</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>319.2483664833925</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22686,13 +22686,13 @@
         <v>182.3178529543487</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>201.2122489658431</v>
       </c>
       <c r="X3" t="n">
         <v>155.2902510084009</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.1999615822278</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22711,25 +22711,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>138.047096124824</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>94.9383138278547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>117.4667456208323</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>103.7197363071342</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>39.94242826331492</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>32.20428827091266</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>134.0058198385908</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.4918077118134</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>133.4093082663792</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>91.44100766901579</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,16 +22796,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2102214038314</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H5" t="n">
-        <v>338.5273214908784</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>206.9091621893709</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052851991</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,28 +22829,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.05760276447</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>197.5380718081886</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>273.9559404895123</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>315.9347826978464</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.9959047043864</v>
+        <v>338.8541417787212</v>
       </c>
     </row>
     <row r="6">
@@ -22860,28 +22860,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>112.7368656692447</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>103.8487624747783</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>87.6923398882896</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.0844620270375</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>122.9001757440007</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>67.23520518655224</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>151.8863777966817</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22954,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>84.71015720632728</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022107</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839138</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871606</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,31 +22984,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366963</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2933741908972</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>198.3413253432054</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>232.7266803559684</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>211.9674153830272</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>164.7883353714722</v>
       </c>
     </row>
     <row r="8">
@@ -23021,13 +23021,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>89.11637806865207</v>
+        <v>317.8890948936751</v>
       </c>
       <c r="D8" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>328.1340520916391</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23039,7 +23039,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I8" t="n">
-        <v>205.0481221176458</v>
+        <v>151.2518041370232</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,7 +23069,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8118405263978</v>
+        <v>152.0155225457752</v>
       </c>
       <c r="T8" t="n">
         <v>222.4795457699687</v>
@@ -23078,13 +23078,13 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
-        <v>84.51360120110027</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,22 +23100,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>110.2612835780685</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>91.27289441276125</v>
       </c>
       <c r="G9" t="n">
-        <v>62.26115298948386</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>111.5079271034444</v>
+        <v>57.71160912282181</v>
       </c>
       <c r="I9" t="n">
         <v>86.80307722268739</v>
@@ -23145,22 +23145,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>197.898665180297</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9278262653587</v>
+        <v>154.1855862593488</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6656840978772</v>
+        <v>107.8693661172546</v>
       </c>
       <c r="I10" t="n">
-        <v>153.551289182031</v>
+        <v>99.75497120140832</v>
       </c>
       <c r="J10" t="n">
-        <v>88.89425643449839</v>
+        <v>35.09793845387575</v>
       </c>
       <c r="K10" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23227,7 +23227,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>47.78481791206872</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
         <v>227.6757534850358</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>183.7907424631435</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.00151041776337</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.361335334088</v>
+        <v>216.8034931298456</v>
       </c>
     </row>
     <row r="14">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
-        <v>191.7530483631784</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>268.8328300228335</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23668,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>103.0154349816514</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.8034931298454</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>287.0568409819818</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>289.6074862198728</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,22 +23783,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>163.3016182312611</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>92.2197766806639</v>
       </c>
       <c r="H19" t="n">
         <v>147.2515091551288</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>191.100946490528</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>375.195270251498</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
         <v>65.70991267247049</v>
@@ -24026,16 +24026,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>102.2999841516656</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I22" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.8034931298457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>74.17671768909258</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>301.0185525624054</v>
@@ -24263,16 +24263,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>180.8276416412345</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>9.607352709646932</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>80.85095794181399</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>99.90812942292672</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
         <v>301.0185525624054</v>
@@ -24491,22 +24491,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>161.4836137898363</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>83.35675288624779</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>220.7486959972119</v>
@@ -24658,16 +24658,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>182.4085303613878</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,22 +24683,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>99.43321449893671</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,10 +24728,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>0.9357071536927606</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24740,13 +24740,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.4154405304715</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>2.74586231587628</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>276.1430340502179</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24932,7 +24932,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
         <v>65.70991267247049</v>
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>221.3585280996908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>92.67373081984096</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>195.5290386500999</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25157,19 +25157,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>22.93671925568151</v>
       </c>
       <c r="I35" t="n">
         <v>65.70991267247049</v>
@@ -25211,10 +25211,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>139.2244876705306</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.32920489499688</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25360,16 +25360,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>55.73584717546831</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25391,13 +25391,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>260.9676286089525</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,10 +25406,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>206.6581849802338</v>
@@ -25448,16 +25448,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>218.1867344540552</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>9.569048497836576</v>
+        <v>9.832560141007406</v>
       </c>
       <c r="I40" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.7486959972119</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25676,25 +25676,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>45.36285657961935</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>276.143034050218</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>38.48036265925219</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3648925275506</v>
       </c>
     </row>
     <row r="44">
@@ -25862,25 +25862,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>140.9934818287799</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>209.1476589157186</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
         <v>65.70991267247049</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>74.32920489499739</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.3066000448042</v>
@@ -26041,7 +26041,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
-        <v>180.498138020086</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>366222.1564409942</v>
+        <v>366222.1564409941</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>517729.9731874179</v>
+        <v>369469.3107848916</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>527814.0121617517</v>
+        <v>369469.3107848917</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>805159.3330061578</v>
+        <v>805159.3330061579</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>805159.3330061578</v>
+        <v>805159.3330061579</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>805159.3330061579</v>
+        <v>805159.3330061578</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>805159.3330061579</v>
+        <v>805159.3330061578</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>805159.3330061579</v>
+        <v>805159.333006158</v>
       </c>
     </row>
     <row r="14">
@@ -26314,25 +26314,25 @@
         <v>110676.5071783019</v>
       </c>
       <c r="C2" t="n">
-        <v>156006.1355264979</v>
+        <v>112088.4937242121</v>
       </c>
       <c r="D2" t="n">
-        <v>159463.6497950859</v>
+        <v>112088.493724212</v>
       </c>
       <c r="E2" t="n">
         <v>275374.4674448775</v>
       </c>
       <c r="F2" t="n">
-        <v>275374.4674448776</v>
+        <v>275374.4674448774</v>
       </c>
       <c r="G2" t="n">
-        <v>275374.4674448775</v>
+        <v>275374.4674448774</v>
       </c>
       <c r="H2" t="n">
         <v>275374.4674448775</v>
       </c>
       <c r="I2" t="n">
-        <v>275374.4674448775</v>
+        <v>275374.4674448774</v>
       </c>
       <c r="J2" t="n">
         <v>275374.4674448775</v>
@@ -26341,16 +26341,16 @@
         <v>275374.4674448775</v>
       </c>
       <c r="L2" t="n">
+        <v>275374.4674448774</v>
+      </c>
+      <c r="M2" t="n">
         <v>275374.4674448775</v>
-      </c>
-      <c r="M2" t="n">
-        <v>275374.4674448774</v>
       </c>
       <c r="N2" t="n">
         <v>275374.4674448775</v>
       </c>
       <c r="O2" t="n">
-        <v>275374.4674448775</v>
+        <v>275374.4674448774</v>
       </c>
       <c r="P2" t="n">
         <v>275374.4674448775</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39093.92006262175</v>
+        <v>39093.92006262176</v>
       </c>
       <c r="C3" t="n">
-        <v>68736.29292524187</v>
+        <v>12004.91953871609</v>
       </c>
       <c r="D3" t="n">
-        <v>14295.33970214087</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>831104.6290469234</v>
+        <v>897496.4915651269</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>13208.50450573658</v>
       </c>
       <c r="K3" t="n">
-        <v>54757.43545975421</v>
+        <v>852.8104317184581</v>
       </c>
       <c r="L3" t="n">
-        <v>3268.538594581485</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>90816.99465797629</v>
+        <v>146230.044872615</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45157.48073329395</v>
+        <v>46532.47558098388</v>
       </c>
       <c r="C4" t="n">
-        <v>65259.2507291969</v>
+        <v>45703.52056516673</v>
       </c>
       <c r="D4" t="n">
-        <v>65362.00551825717</v>
+        <v>45703.52056516673</v>
       </c>
       <c r="E4" t="n">
-        <v>9869.99938641156</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="F4" t="n">
-        <v>9869.999386411557</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="G4" t="n">
-        <v>9869.99938641156</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="H4" t="n">
-        <v>9869.999386411562</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="I4" t="n">
-        <v>9869.999386411559</v>
+        <v>10154.90898475462</v>
       </c>
       <c r="J4" t="n">
-        <v>9869.999386411557</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="K4" t="n">
-        <v>9869.999386411559</v>
+        <v>10154.90898475462</v>
       </c>
       <c r="L4" t="n">
-        <v>9869.999386411564</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="M4" t="n">
-        <v>9869.999386411562</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="N4" t="n">
-        <v>9869.999386411564</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="O4" t="n">
-        <v>9869.99938641156</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="P4" t="n">
-        <v>9869.99938641156</v>
+        <v>10154.90898475463</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>37198.64198163266</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683338</v>
+        <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>51181.37951678014</v>
+        <v>37661.87961689879</v>
       </c>
       <c r="E5" t="n">
         <v>59310.17243984471</v>
@@ -26485,16 +26485,16 @@
         <v>59310.17243984471</v>
       </c>
       <c r="H5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="I5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="J5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="K5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="L5" t="n">
         <v>59310.17243984471</v>
@@ -26506,10 +26506,10 @@
         <v>59310.17243984471</v>
       </c>
       <c r="O5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10773.53559924651</v>
+        <v>-12148.53044693645</v>
       </c>
       <c r="C6" t="n">
-        <v>-28123.81553477424</v>
+        <v>16718.17400343045</v>
       </c>
       <c r="D6" t="n">
-        <v>28624.92505790769</v>
+        <v>28723.09354214651</v>
       </c>
       <c r="E6" t="n">
-        <v>-624910.3334283021</v>
+        <v>-691587.1055448486</v>
       </c>
       <c r="F6" t="n">
-        <v>206194.2956186213</v>
+        <v>205909.3860202781</v>
       </c>
       <c r="G6" t="n">
-        <v>206194.2956186213</v>
+        <v>205909.3860202781</v>
       </c>
       <c r="H6" t="n">
-        <v>206194.2956186212</v>
+        <v>205909.3860202781</v>
       </c>
       <c r="I6" t="n">
-        <v>206194.2956186212</v>
+        <v>205909.3860202781</v>
       </c>
       <c r="J6" t="n">
-        <v>192985.7911128846</v>
+        <v>192700.8815145416</v>
       </c>
       <c r="K6" t="n">
-        <v>151436.860158867</v>
+        <v>205056.5755885597</v>
       </c>
       <c r="L6" t="n">
-        <v>202925.7570240398</v>
+        <v>205909.3860202781</v>
       </c>
       <c r="M6" t="n">
-        <v>115377.3009606449</v>
+        <v>59679.34114766316</v>
       </c>
       <c r="N6" t="n">
-        <v>206194.2956186213</v>
+        <v>205909.3860202782</v>
       </c>
       <c r="O6" t="n">
-        <v>206194.2956186213</v>
+        <v>205909.386020278</v>
       </c>
       <c r="P6" t="n">
-        <v>206194.2956186212</v>
+        <v>205909.3860202782</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26738,16 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678986</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="G3" t="n">
         <v>934.0648921175392</v>
@@ -26790,31 +26790,31 @@
         <v>50.48273419507654</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516672</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>276.1565137023555</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="E4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="G4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="H4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="I4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="I4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000387</v>
-      </c>
       <c r="K4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="L4" t="n">
         <v>640.5848321000389</v>
@@ -26826,10 +26826,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
     </row>
   </sheetData>
@@ -26960,10 +26960,10 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>5.364597654988756e-13</v>
+        <v>12.00787803233601</v>
       </c>
       <c r="D3" t="n">
-        <v>12.00787803233549</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>899.0436313984138</v>
@@ -27012,13 +27012,13 @@
         <v>50.48273419507654</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7592997565906</v>
+        <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>12.91447975068832</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>364.4283183976834</v>
+        <v>586.7885141194162</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>50.48273419507643</v>
       </c>
       <c r="K4" t="n">
-        <v>212.7592997565906</v>
+        <v>3.313583785546214</v>
       </c>
       <c r="L4" t="n">
-        <v>12.91447975068843</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>364.4283183976834</v>
+        <v>586.7885141194162</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>50.48273419507654</v>
       </c>
       <c r="K4" t="n">
-        <v>212.7592997565906</v>
+        <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>12.91447975068832</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>364.4283183976834</v>
+        <v>586.7885141194162</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367775</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887899</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I5" t="n">
-        <v>3.56672738103504</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760526</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324521</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455514</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895192</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019349</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841755</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P5" t="n">
-        <v>13.303932450608</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214545037</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679652</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332559</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318495</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294218</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498196</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104837</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125476</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246607</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750399</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688238</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430047</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418822</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277523179</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.31869329921068</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605635</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705524055</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467912</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564604</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994892</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259097</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047555</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281388</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166792</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471498</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M7" t="n">
-        <v>6.50524192898881</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815848097</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150964</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037132002</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705268</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473157</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750187</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588726</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815398</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H8" t="n">
-        <v>1.441855221466301</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I8" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -31528,31 +31528,31 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L8" t="n">
-        <v>22.21755819470703</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M8" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N8" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O8" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P8" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>8.843836255870382</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S8" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U8" t="n">
         <v>0.01126311902524633</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H9" t="n">
-        <v>0.727517133052019</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I9" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J9" t="n">
-        <v>7.116914878779992</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K9" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L9" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M9" t="n">
-        <v>19.08658709192331</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N9" t="n">
         <v>19.59175225833409</v>
       </c>
       <c r="O9" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P9" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R9" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S9" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I10" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J10" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K10" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M10" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N10" t="n">
-        <v>9.664145601394054</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.288210368587927</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R10" t="n">
-        <v>2.839592713390064</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S10" t="n">
         <v>1.100586177025627</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,43 +31753,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I11" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L11" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U11" t="n">
         <v>0.3004027793744847</v>
@@ -31832,10 +31832,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
@@ -31844,7 +31844,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M12" t="n">
         <v>509.0653662040588</v>
@@ -31853,25 +31853,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P12" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31929,10 +31929,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P13" t="n">
         <v>203.7180217169137</v>
@@ -31944,13 +31944,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,43 +31990,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I14" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L14" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U14" t="n">
         <v>0.3004027793744847</v>
@@ -32069,10 +32069,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J15" t="n">
         <v>189.8178475575841</v>
@@ -32081,7 +32081,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M15" t="n">
         <v>509.0653662040588</v>
@@ -32090,25 +32090,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P15" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
@@ -32166,10 +32166,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P16" t="n">
         <v>203.7180217169137</v>
@@ -32181,13 +32181,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34366,7 +34366,7 @@
         <v>144.7659768979354</v>
       </c>
       <c r="J44" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K44" t="n">
         <v>477.6545005857143</v>
@@ -34375,7 +34375,7 @@
         <v>592.572645076738</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730004</v>
+        <v>659.351244173001</v>
       </c>
       <c r="N44" t="n">
         <v>670.0202366342224</v>
@@ -34702,13 +34702,13 @@
         <v>50.48273419507654</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>48.44302776295223</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>50.48273419507654</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>44.51290893396359</v>
       </c>
       <c r="M3" t="n">
-        <v>48.44302776295223</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194294</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>196.4945358150183</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945117</v>
+        <v>46.40980178192011</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455867</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O5" t="n">
-        <v>166.2898937894762</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="P5" t="n">
-        <v>103.8696448668211</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988751</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>134.61704058897</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604674</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>127.1540446485821</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>51.62272937534495</v>
       </c>
       <c r="P6" t="n">
-        <v>193.9407825031301</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.41420694903826</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178763</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M7" t="n">
-        <v>46.0891188908294</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507669</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919064</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P7" t="n">
-        <v>2.29774030202549</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>121.9644487350302</v>
+        <v>51.62272937534495</v>
       </c>
       <c r="L8" t="n">
-        <v>204.1123577751702</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="M8" t="n">
-        <v>243.8886146223321</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="N8" t="n">
-        <v>233.0551918837966</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>174.4233304118708</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="P8" t="n">
-        <v>110.8113448503282</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.212927593424832</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="L9" t="n">
-        <v>73.09363939595693</v>
+        <v>51.62272937534495</v>
       </c>
       <c r="M9" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>269.1887005891756</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>198.8728484821096</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,16 +35337,16 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M10" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N10" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O10" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P10" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K11" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P11" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K12" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L12" t="n">
-        <v>508.7132618620064</v>
+        <v>491.0077074256856</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N12" t="n">
         <v>391.1970995928739</v>
@@ -35504,10 +35504,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L13" t="n">
         <v>278.0112915831069</v>
@@ -35577,7 +35577,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O13" t="n">
         <v>262.6644876295069</v>
@@ -35586,7 +35586,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K14" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P14" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681233</v>
       </c>
       <c r="K15" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M15" t="n">
-        <v>465.1758167018089</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N15" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O15" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L16" t="n">
         <v>278.0112915831069</v>
@@ -35814,7 +35814,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O16" t="n">
         <v>262.6644876295069</v>
@@ -35823,7 +35823,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K18" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L18" t="n">
-        <v>382.6222265215976</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M18" t="n">
         <v>366.9313322820405</v>
@@ -35978,13 +35978,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P18" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225042</v>
       </c>
       <c r="K20" t="n">
         <v>257.5646495407337</v>
@@ -36142,7 +36142,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K21" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L21" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M21" t="n">
-        <v>366.9313322820405</v>
+        <v>412.3780932933494</v>
       </c>
       <c r="N21" t="n">
-        <v>391.1970995928739</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O21" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P21" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225042</v>
       </c>
       <c r="K23" t="n">
         <v>257.5646495407337</v>
@@ -36367,7 +36367,7 @@
         <v>429.0050109457277</v>
       </c>
       <c r="N23" t="n">
-        <v>440.6071730376317</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O23" t="n">
         <v>402.5828984949727</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K24" t="n">
         <v>451.0527332560634</v>
@@ -36452,10 +36452,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.6579754225033</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K26" t="n">
         <v>257.5646495407337</v>
@@ -36616,7 +36616,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R26" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K27" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M27" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N27" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O27" t="n">
-        <v>341.8791195350528</v>
+        <v>600.455114847638</v>
       </c>
       <c r="P27" t="n">
         <v>249.6795291235323</v>
@@ -36850,7 +36850,7 @@
         <v>308.745693963795</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.1958181402551</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R29" t="n">
         <v>20.29166330939904</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
         <v>451.0527332560634</v>
@@ -36926,10 +36926,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P30" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,10 +37078,10 @@
         <v>429.0050109457277</v>
       </c>
       <c r="N32" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376317</v>
       </c>
       <c r="O32" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P32" t="n">
         <v>308.745693963795</v>
@@ -37154,19 +37154,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M33" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N33" t="n">
-        <v>436.96198190312</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O33" t="n">
-        <v>335.424681996123</v>
+        <v>546.4575832202792</v>
       </c>
       <c r="P33" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q33" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K35" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L35" t="n">
         <v>356.8062301067508</v>
       </c>
       <c r="M35" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N35" t="n">
         <v>440.6071730376315</v>
@@ -37385,7 +37385,7 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K36" t="n">
-        <v>397.620397467641</v>
+        <v>442.1115449906423</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
@@ -37394,19 +37394,19 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N36" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O36" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L39" t="n">
-        <v>328.0496171437451</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M39" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N39" t="n">
         <v>391.1970995928739</v>
@@ -37640,7 +37640,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>326.5580100667037</v>
+        <v>221.6479684267698</v>
       </c>
       <c r="R39" t="n">
         <v>24.58388860977092</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225042</v>
       </c>
       <c r="K41" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L41" t="n">
         <v>356.8062301067508</v>
@@ -37859,13 +37859,13 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>316.338630949171</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N42" t="n">
         <v>391.1970995928739</v>
@@ -37877,10 +37877,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.4807223308546</v>
+        <v>221.6479684267703</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K44" t="n">
         <v>257.5646495407337</v>
@@ -38023,7 +38023,7 @@
         <v>356.8062301067508</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457283</v>
       </c>
       <c r="N44" t="n">
         <v>440.6071730376315</v>
@@ -38096,7 +38096,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>379.9148430313201</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
@@ -38114,7 +38114,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
